--- a/Ülke Eşleme/25112024_Ulkeler w_iso3.xlsx
+++ b/Ülke Eşleme/25112024_Ulkeler w_iso3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/MENA/CEE-MENA/Ülke Eşleme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_656DA28AD246C00E62355476585DCE3A87470992" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0853EBAD-968D-429A-A24A-F5C42D24FDF6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_656DA28AD246C00E62355476585DCE3A87470992" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCBEB34-48F5-4168-BA38-C15DF4D16AE8}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14175" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1675,11 +1675,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
